--- a/task1_communication.xlsx
+++ b/task1_communication.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.ochieng\Desktop\ARPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ARPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Cumulative Sums" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,17 +26,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Individual/Week</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Kevin Smart</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Bob Lee</t>
+  </si>
+  <si>
+    <t>Grace Kim</t>
+  </si>
+  <si>
+    <t>David Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maria Gomez</t>
+  </si>
+  <si>
+    <t>Tom White</t>
+  </si>
+  <si>
+    <t>Linda Brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,7 +143,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -116,14 +156,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Week vs Cumulative</a:t>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Cumulative Weekly Sums per Individual</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Sum</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -141,7 +177,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -159,23 +195,24 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.2692038495188102E-2"/>
-          <c:y val="0.26430555555555557"/>
-          <c:w val="0.89936854768153984"/>
-          <c:h val="0.46567767570720325"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>John Doe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -188,170 +225,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$1:$BA$1</c:f>
+              <c:f>'Cumulative Sums'!$B$2:$BA$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>0.33987756515292755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,13 +558,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000000-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kevin Smart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -378,170 +588,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$2:$BA$2</c:f>
+              <c:f>'Cumulative Sums'!$B$3:$BA$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.73654759979395967</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.73654759979395967</c:v>
+                  <c:v>0.22440629122092481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,13 +921,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000001-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jane Smith</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -568,170 +951,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$3:$BA$3</c:f>
+              <c:f>'Cumulative Sums'!$B$4:$BA$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5537581740063986</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.5537581740063986</c:v>
+                  <c:v>1.7631200508457345E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,13 +1284,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000002-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alice Johnson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -758,170 +1314,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$4:$BA$4</c:f>
+              <c:f>'Cumulative Sums'!$B$5:$BA$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.66497884176105848</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.66497884176105848</c:v>
+                  <c:v>1.8962754411387506E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,13 +1647,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000003-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bob Lee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -948,170 +1677,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$5:$BA$5</c:f>
+              <c:f>'Cumulative Sums'!$B$6:$BA$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.47173769188037751</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.47173769188037751</c:v>
+                  <c:v>0.16203177743116903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,13 +2010,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000004-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grace Kim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1138,170 +2040,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$6:$BA$6</c:f>
+              <c:f>'Cumulative Sums'!$B$7:$BA$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.94408159045671702</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.94408159045671702</c:v>
+                  <c:v>0.95945579478552478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,13 +2373,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000005-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>David Chen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1330,170 +2405,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$7:$BA$7</c:f>
+              <c:f>'Cumulative Sums'!$B$8:$BA$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.25998276492075845</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.25998276492075845</c:v>
+                  <c:v>0.17470422018059872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,13 +2738,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000006-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Maria Gomez</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1522,170 +2770,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$8:$BA$8</c:f>
+              <c:f>'Cumulative Sums'!$B$9:$BA$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.21799953981233211</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.21799953981233211</c:v>
+                  <c:v>0.18254069966587116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1693,13 +3103,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000007-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tom White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1714,170 +3135,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$9:$BA$9</c:f>
+              <c:f>'Cumulative Sums'!$B$10:$BA$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.55424762630783586</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.55424762630783586</c:v>
+                  <c:v>0.55768455815132523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,13 +3468,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000008-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cumulative Sums'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linda Brown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1906,170 +3500,332 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cumulative Sums'!$B$1:$BA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Cumulative Sums'!$A$10:$BA$10</c:f>
+              <c:f>'Cumulative Sums'!$B$11:$BA$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.3024204106439079E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9.3024204106439079E-2</c:v>
+                  <c:v>0.6022325197605346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,199 +3833,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4842-469B-A5CA-B16A2EAD5336}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'Cumulative Sums'!$A$11:$BA$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.21369003957685306</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4842-469B-A5CA-B16A2EAD5336}"/>
+              <c16:uniqueId val="{00000009-5528-44A1-920A-67C83460B3BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2282,16 +3846,30 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1772839264"/>
-        <c:axId val="1772839680"/>
+        <c:axId val="975050079"/>
+        <c:axId val="975062143"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772839264"/>
+        <c:axId val="975050079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2299,7 +3877,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2312,18 +3890,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Week</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2341,7 +3910,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2357,6 +3926,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2393,7 +3963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772839680"/>
+        <c:crossAx val="975062143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2401,26 +3971,26 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772839680"/>
+        <c:axId val="975062143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2428,7 +3998,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2441,9 +4011,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
                   <a:t>Cumulative Sum</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2461,7 +4032,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2478,7 +4049,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2508,13 +4079,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772839264"/>
+        <c:crossAx val="975050079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2562,9 +4133,8 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -3150,19 +4720,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46263</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>353787</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>117929</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>399143</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3446,7 +5016,7 @@
   <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16"/>
+      <selection activeCell="AZ9" sqref="AZ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3455,7 +5025,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3616,93 +5186,93 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B11" ca="1" si="0">RAND()</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
     </row>
   </sheetData>
@@ -3715,8 +5285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3725,7 +5295,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
@@ -3886,2133 +5456,2133 @@
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <f ca="1">SUM(Sheet1!$B2:B2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="C2">
         <f ca="1">SUM(Sheet1!$B2:C2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="D2">
         <f ca="1">SUM(Sheet1!$B2:D2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="E2">
         <f ca="1">SUM(Sheet1!$B2:E2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(Sheet1!$B2:F2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="G2">
         <f ca="1">SUM(Sheet1!$B2:G2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="H2">
         <f ca="1">SUM(Sheet1!$B2:H2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="I2">
         <f ca="1">SUM(Sheet1!$B2:I2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(Sheet1!$B2:J2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="K2">
         <f ca="1">SUM(Sheet1!$B2:K2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="L2">
         <f ca="1">SUM(Sheet1!$B2:L2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="M2">
         <f ca="1">SUM(Sheet1!$B2:M2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="N2">
         <f ca="1">SUM(Sheet1!$B2:N2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="O2">
         <f ca="1">SUM(Sheet1!$B2:O2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="P2">
         <f ca="1">SUM(Sheet1!$B2:P2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="Q2">
         <f ca="1">SUM(Sheet1!$B2:Q2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="R2">
         <f ca="1">SUM(Sheet1!$B2:R2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="S2">
         <f ca="1">SUM(Sheet1!$B2:S2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="T2">
         <f ca="1">SUM(Sheet1!$B2:T2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="U2">
         <f ca="1">SUM(Sheet1!$B2:U2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="V2">
         <f ca="1">SUM(Sheet1!$B2:V2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="W2">
         <f ca="1">SUM(Sheet1!$B2:W2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="X2">
         <f ca="1">SUM(Sheet1!$B2:X2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="Y2">
         <f ca="1">SUM(Sheet1!$B2:Y2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="Z2">
         <f ca="1">SUM(Sheet1!$B2:Z2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AA2">
         <f ca="1">SUM(Sheet1!$B2:AA2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AB2">
         <f ca="1">SUM(Sheet1!$B2:AB2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AC2">
         <f ca="1">SUM(Sheet1!$B2:AC2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AD2">
         <f ca="1">SUM(Sheet1!$B2:AD2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AE2">
         <f ca="1">SUM(Sheet1!$B2:AE2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AF2">
         <f ca="1">SUM(Sheet1!$B2:AF2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AG2">
         <f ca="1">SUM(Sheet1!$B2:AG2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AH2">
         <f ca="1">SUM(Sheet1!$B2:AH2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AI2">
         <f ca="1">SUM(Sheet1!$B2:AI2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AJ2">
         <f ca="1">SUM(Sheet1!$B2:AJ2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AK2">
         <f ca="1">SUM(Sheet1!$B2:AK2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AL2">
         <f ca="1">SUM(Sheet1!$B2:AL2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AM2">
         <f ca="1">SUM(Sheet1!$B2:AM2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AN2">
         <f ca="1">SUM(Sheet1!$B2:AN2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AO2">
         <f ca="1">SUM(Sheet1!$B2:AO2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AP2">
         <f ca="1">SUM(Sheet1!$B2:AP2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AQ2">
         <f ca="1">SUM(Sheet1!$B2:AQ2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AR2">
         <f ca="1">SUM(Sheet1!$B2:AR2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AS2">
         <f ca="1">SUM(Sheet1!$B2:AS2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AT2">
         <f ca="1">SUM(Sheet1!$B2:AT2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AU2">
         <f ca="1">SUM(Sheet1!$B2:AU2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AV2">
         <f ca="1">SUM(Sheet1!$B2:AV2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AW2">
         <f ca="1">SUM(Sheet1!$B2:AW2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AX2">
         <f ca="1">SUM(Sheet1!$B2:AX2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AY2">
         <f ca="1">SUM(Sheet1!$B2:AY2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="AZ2">
         <f ca="1">SUM(Sheet1!$B2:AZ2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
       <c r="BA2">
         <f ca="1">SUM(Sheet1!$B2:BA2)</f>
-        <v>0.73654759979395967</v>
+        <v>0.33987756515292755</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f ca="1">SUM(Sheet1!$B3:B3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="C3">
         <f ca="1">SUM(Sheet1!$B3:C3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="D3">
         <f ca="1">SUM(Sheet1!$B3:D3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="E3">
         <f ca="1">SUM(Sheet1!$B3:E3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="F3">
         <f ca="1">SUM(Sheet1!$B3:F3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="G3">
         <f ca="1">SUM(Sheet1!$B3:G3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="H3">
         <f ca="1">SUM(Sheet1!$B3:H3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="I3">
         <f ca="1">SUM(Sheet1!$B3:I3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="J3">
         <f ca="1">SUM(Sheet1!$B3:J3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="K3">
         <f ca="1">SUM(Sheet1!$B3:K3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="L3">
         <f ca="1">SUM(Sheet1!$B3:L3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="M3">
         <f ca="1">SUM(Sheet1!$B3:M3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="N3">
         <f ca="1">SUM(Sheet1!$B3:N3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="O3">
         <f ca="1">SUM(Sheet1!$B3:O3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="P3">
         <f ca="1">SUM(Sheet1!$B3:P3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="Q3">
         <f ca="1">SUM(Sheet1!$B3:Q3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="R3">
         <f ca="1">SUM(Sheet1!$B3:R3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="S3">
         <f ca="1">SUM(Sheet1!$B3:S3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="T3">
         <f ca="1">SUM(Sheet1!$B3:T3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="U3">
         <f ca="1">SUM(Sheet1!$B3:U3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="V3">
         <f ca="1">SUM(Sheet1!$B3:V3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="W3">
         <f ca="1">SUM(Sheet1!$B3:W3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="X3">
         <f ca="1">SUM(Sheet1!$B3:X3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="Y3">
         <f ca="1">SUM(Sheet1!$B3:Y3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="Z3">
         <f ca="1">SUM(Sheet1!$B3:Z3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AA3">
         <f ca="1">SUM(Sheet1!$B3:AA3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AB3">
         <f ca="1">SUM(Sheet1!$B3:AB3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AC3">
         <f ca="1">SUM(Sheet1!$B3:AC3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AD3">
         <f ca="1">SUM(Sheet1!$B3:AD3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AE3">
         <f ca="1">SUM(Sheet1!$B3:AE3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AF3">
         <f ca="1">SUM(Sheet1!$B3:AF3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AG3">
         <f ca="1">SUM(Sheet1!$B3:AG3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AH3">
         <f ca="1">SUM(Sheet1!$B3:AH3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AI3">
         <f ca="1">SUM(Sheet1!$B3:AI3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AJ3">
         <f ca="1">SUM(Sheet1!$B3:AJ3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AK3">
         <f ca="1">SUM(Sheet1!$B3:AK3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AL3">
         <f ca="1">SUM(Sheet1!$B3:AL3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AM3">
         <f ca="1">SUM(Sheet1!$B3:AM3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AN3">
         <f ca="1">SUM(Sheet1!$B3:AN3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AO3">
         <f ca="1">SUM(Sheet1!$B3:AO3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AP3">
         <f ca="1">SUM(Sheet1!$B3:AP3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AQ3">
         <f ca="1">SUM(Sheet1!$B3:AQ3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AR3">
         <f ca="1">SUM(Sheet1!$B3:AR3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AS3">
         <f ca="1">SUM(Sheet1!$B3:AS3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AT3">
         <f ca="1">SUM(Sheet1!$B3:AT3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AU3">
         <f ca="1">SUM(Sheet1!$B3:AU3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AV3">
         <f ca="1">SUM(Sheet1!$B3:AV3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AW3">
         <f ca="1">SUM(Sheet1!$B3:AW3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AX3">
         <f ca="1">SUM(Sheet1!$B3:AX3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AY3">
         <f ca="1">SUM(Sheet1!$B3:AY3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="AZ3">
         <f ca="1">SUM(Sheet1!$B3:AZ3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
       <c r="BA3">
         <f ca="1">SUM(Sheet1!$B3:BA3)</f>
-        <v>0.5537581740063986</v>
+        <v>0.22440629122092481</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f ca="1">SUM(Sheet1!$B4:B4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="C4">
         <f ca="1">SUM(Sheet1!$B4:C4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="D4">
         <f ca="1">SUM(Sheet1!$B4:D4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="E4">
         <f ca="1">SUM(Sheet1!$B4:E4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="F4">
         <f ca="1">SUM(Sheet1!$B4:F4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="G4">
         <f ca="1">SUM(Sheet1!$B4:G4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="H4">
         <f ca="1">SUM(Sheet1!$B4:H4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="I4">
         <f ca="1">SUM(Sheet1!$B4:I4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="J4">
         <f ca="1">SUM(Sheet1!$B4:J4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="K4">
         <f ca="1">SUM(Sheet1!$B4:K4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="L4">
         <f ca="1">SUM(Sheet1!$B4:L4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="M4">
         <f ca="1">SUM(Sheet1!$B4:M4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="N4">
         <f ca="1">SUM(Sheet1!$B4:N4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="O4">
         <f ca="1">SUM(Sheet1!$B4:O4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="P4">
         <f ca="1">SUM(Sheet1!$B4:P4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="Q4">
         <f ca="1">SUM(Sheet1!$B4:Q4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="R4">
         <f ca="1">SUM(Sheet1!$B4:R4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="S4">
         <f ca="1">SUM(Sheet1!$B4:S4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="T4">
         <f ca="1">SUM(Sheet1!$B4:T4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="U4">
         <f ca="1">SUM(Sheet1!$B4:U4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="V4">
         <f ca="1">SUM(Sheet1!$B4:V4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="W4">
         <f ca="1">SUM(Sheet1!$B4:W4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="X4">
         <f ca="1">SUM(Sheet1!$B4:X4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="Y4">
         <f ca="1">SUM(Sheet1!$B4:Y4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="Z4">
         <f ca="1">SUM(Sheet1!$B4:Z4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AA4">
         <f ca="1">SUM(Sheet1!$B4:AA4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AB4">
         <f ca="1">SUM(Sheet1!$B4:AB4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AC4">
         <f ca="1">SUM(Sheet1!$B4:AC4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AD4">
         <f ca="1">SUM(Sheet1!$B4:AD4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AE4">
         <f ca="1">SUM(Sheet1!$B4:AE4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AF4">
         <f ca="1">SUM(Sheet1!$B4:AF4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AG4">
         <f ca="1">SUM(Sheet1!$B4:AG4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AH4">
         <f ca="1">SUM(Sheet1!$B4:AH4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AI4">
         <f ca="1">SUM(Sheet1!$B4:AI4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AJ4">
         <f ca="1">SUM(Sheet1!$B4:AJ4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AK4">
         <f ca="1">SUM(Sheet1!$B4:AK4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AL4">
         <f ca="1">SUM(Sheet1!$B4:AL4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AM4">
         <f ca="1">SUM(Sheet1!$B4:AM4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AN4">
         <f ca="1">SUM(Sheet1!$B4:AN4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AO4">
         <f ca="1">SUM(Sheet1!$B4:AO4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AP4">
         <f ca="1">SUM(Sheet1!$B4:AP4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AQ4">
         <f ca="1">SUM(Sheet1!$B4:AQ4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AR4">
         <f ca="1">SUM(Sheet1!$B4:AR4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AS4">
         <f ca="1">SUM(Sheet1!$B4:AS4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AT4">
         <f ca="1">SUM(Sheet1!$B4:AT4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AU4">
         <f ca="1">SUM(Sheet1!$B4:AU4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AV4">
         <f ca="1">SUM(Sheet1!$B4:AV4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AW4">
         <f ca="1">SUM(Sheet1!$B4:AW4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AX4">
         <f ca="1">SUM(Sheet1!$B4:AX4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AY4">
         <f ca="1">SUM(Sheet1!$B4:AY4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="AZ4">
         <f ca="1">SUM(Sheet1!$B4:AZ4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
       <c r="BA4">
         <f ca="1">SUM(Sheet1!$B4:BA4)</f>
-        <v>0.66497884176105848</v>
+        <v>1.7631200508457345E-2</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f ca="1">SUM(Sheet1!$B5:B5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="C5">
         <f ca="1">SUM(Sheet1!$B5:C5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="D5">
         <f ca="1">SUM(Sheet1!$B5:D5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="E5">
         <f ca="1">SUM(Sheet1!$B5:E5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="F5">
         <f ca="1">SUM(Sheet1!$B5:F5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="G5">
         <f ca="1">SUM(Sheet1!$B5:G5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="H5">
         <f ca="1">SUM(Sheet1!$B5:H5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="I5">
         <f ca="1">SUM(Sheet1!$B5:I5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="J5">
         <f ca="1">SUM(Sheet1!$B5:J5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="K5">
         <f ca="1">SUM(Sheet1!$B5:K5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="L5">
         <f ca="1">SUM(Sheet1!$B5:L5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="M5">
         <f ca="1">SUM(Sheet1!$B5:M5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="N5">
         <f ca="1">SUM(Sheet1!$B5:N5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="O5">
         <f ca="1">SUM(Sheet1!$B5:O5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="P5">
         <f ca="1">SUM(Sheet1!$B5:P5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="Q5">
         <f ca="1">SUM(Sheet1!$B5:Q5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="R5">
         <f ca="1">SUM(Sheet1!$B5:R5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="S5">
         <f ca="1">SUM(Sheet1!$B5:S5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="T5">
         <f ca="1">SUM(Sheet1!$B5:T5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="U5">
         <f ca="1">SUM(Sheet1!$B5:U5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="V5">
         <f ca="1">SUM(Sheet1!$B5:V5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="W5">
         <f ca="1">SUM(Sheet1!$B5:W5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="X5">
         <f ca="1">SUM(Sheet1!$B5:X5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="Y5">
         <f ca="1">SUM(Sheet1!$B5:Y5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="Z5">
         <f ca="1">SUM(Sheet1!$B5:Z5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AA5">
         <f ca="1">SUM(Sheet1!$B5:AA5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AB5">
         <f ca="1">SUM(Sheet1!$B5:AB5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AC5">
         <f ca="1">SUM(Sheet1!$B5:AC5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AD5">
         <f ca="1">SUM(Sheet1!$B5:AD5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AE5">
         <f ca="1">SUM(Sheet1!$B5:AE5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AF5">
         <f ca="1">SUM(Sheet1!$B5:AF5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AG5">
         <f ca="1">SUM(Sheet1!$B5:AG5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AH5">
         <f ca="1">SUM(Sheet1!$B5:AH5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AI5">
         <f ca="1">SUM(Sheet1!$B5:AI5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AJ5">
         <f ca="1">SUM(Sheet1!$B5:AJ5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AK5">
         <f ca="1">SUM(Sheet1!$B5:AK5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AL5">
         <f ca="1">SUM(Sheet1!$B5:AL5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AM5">
         <f ca="1">SUM(Sheet1!$B5:AM5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AN5">
         <f ca="1">SUM(Sheet1!$B5:AN5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AO5">
         <f ca="1">SUM(Sheet1!$B5:AO5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AP5">
         <f ca="1">SUM(Sheet1!$B5:AP5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AQ5">
         <f ca="1">SUM(Sheet1!$B5:AQ5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AR5">
         <f ca="1">SUM(Sheet1!$B5:AR5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AS5">
         <f ca="1">SUM(Sheet1!$B5:AS5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AT5">
         <f ca="1">SUM(Sheet1!$B5:AT5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AU5">
         <f ca="1">SUM(Sheet1!$B5:AU5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AV5">
         <f ca="1">SUM(Sheet1!$B5:AV5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AW5">
         <f ca="1">SUM(Sheet1!$B5:AW5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AX5">
         <f ca="1">SUM(Sheet1!$B5:AX5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AY5">
         <f ca="1">SUM(Sheet1!$B5:AY5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="AZ5">
         <f ca="1">SUM(Sheet1!$B5:AZ5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
       <c r="BA5">
         <f ca="1">SUM(Sheet1!$B5:BA5)</f>
-        <v>0.47173769188037751</v>
+        <v>1.8962754411387506E-2</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f ca="1">SUM(Sheet1!$B6:B6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="C6">
         <f ca="1">SUM(Sheet1!$B6:C6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="D6">
         <f ca="1">SUM(Sheet1!$B6:D6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="E6">
         <f ca="1">SUM(Sheet1!$B6:E6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="F6">
         <f ca="1">SUM(Sheet1!$B6:F6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="G6">
         <f ca="1">SUM(Sheet1!$B6:G6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="H6">
         <f ca="1">SUM(Sheet1!$B6:H6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="I6">
         <f ca="1">SUM(Sheet1!$B6:I6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="J6">
         <f ca="1">SUM(Sheet1!$B6:J6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="K6">
         <f ca="1">SUM(Sheet1!$B6:K6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="L6">
         <f ca="1">SUM(Sheet1!$B6:L6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="M6">
         <f ca="1">SUM(Sheet1!$B6:M6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="N6">
         <f ca="1">SUM(Sheet1!$B6:N6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="O6">
         <f ca="1">SUM(Sheet1!$B6:O6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="P6">
         <f ca="1">SUM(Sheet1!$B6:P6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="Q6">
         <f ca="1">SUM(Sheet1!$B6:Q6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="R6">
         <f ca="1">SUM(Sheet1!$B6:R6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="S6">
         <f ca="1">SUM(Sheet1!$B6:S6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="T6">
         <f ca="1">SUM(Sheet1!$B6:T6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="U6">
         <f ca="1">SUM(Sheet1!$B6:U6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="V6">
         <f ca="1">SUM(Sheet1!$B6:V6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="W6">
         <f ca="1">SUM(Sheet1!$B6:W6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="X6">
         <f ca="1">SUM(Sheet1!$B6:X6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="Y6">
         <f ca="1">SUM(Sheet1!$B6:Y6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="Z6">
         <f ca="1">SUM(Sheet1!$B6:Z6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AA6">
         <f ca="1">SUM(Sheet1!$B6:AA6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AB6">
         <f ca="1">SUM(Sheet1!$B6:AB6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AC6">
         <f ca="1">SUM(Sheet1!$B6:AC6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AD6">
         <f ca="1">SUM(Sheet1!$B6:AD6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AE6">
         <f ca="1">SUM(Sheet1!$B6:AE6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AF6">
         <f ca="1">SUM(Sheet1!$B6:AF6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AG6">
         <f ca="1">SUM(Sheet1!$B6:AG6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AH6">
         <f ca="1">SUM(Sheet1!$B6:AH6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AI6">
         <f ca="1">SUM(Sheet1!$B6:AI6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AJ6">
         <f ca="1">SUM(Sheet1!$B6:AJ6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AK6">
         <f ca="1">SUM(Sheet1!$B6:AK6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AL6">
         <f ca="1">SUM(Sheet1!$B6:AL6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AM6">
         <f ca="1">SUM(Sheet1!$B6:AM6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AN6">
         <f ca="1">SUM(Sheet1!$B6:AN6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AO6">
         <f ca="1">SUM(Sheet1!$B6:AO6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AP6">
         <f ca="1">SUM(Sheet1!$B6:AP6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AQ6">
         <f ca="1">SUM(Sheet1!$B6:AQ6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AR6">
         <f ca="1">SUM(Sheet1!$B6:AR6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AS6">
         <f ca="1">SUM(Sheet1!$B6:AS6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AT6">
         <f ca="1">SUM(Sheet1!$B6:AT6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AU6">
         <f ca="1">SUM(Sheet1!$B6:AU6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AV6">
         <f ca="1">SUM(Sheet1!$B6:AV6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AW6">
         <f ca="1">SUM(Sheet1!$B6:AW6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AX6">
         <f ca="1">SUM(Sheet1!$B6:AX6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AY6">
         <f ca="1">SUM(Sheet1!$B6:AY6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="AZ6">
         <f ca="1">SUM(Sheet1!$B6:AZ6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
       <c r="BA6">
         <f ca="1">SUM(Sheet1!$B6:BA6)</f>
-        <v>0.94408159045671702</v>
+        <v>0.16203177743116903</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f ca="1">SUM(Sheet1!$B7:B7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="C7">
         <f ca="1">SUM(Sheet1!$B7:C7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="D7">
         <f ca="1">SUM(Sheet1!$B7:D7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="E7">
         <f ca="1">SUM(Sheet1!$B7:E7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="F7">
         <f ca="1">SUM(Sheet1!$B7:F7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="G7">
         <f ca="1">SUM(Sheet1!$B7:G7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="H7">
         <f ca="1">SUM(Sheet1!$B7:H7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="I7">
         <f ca="1">SUM(Sheet1!$B7:I7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="J7">
         <f ca="1">SUM(Sheet1!$B7:J7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="K7">
         <f ca="1">SUM(Sheet1!$B7:K7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="L7">
         <f ca="1">SUM(Sheet1!$B7:L7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="M7">
         <f ca="1">SUM(Sheet1!$B7:M7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="N7">
         <f ca="1">SUM(Sheet1!$B7:N7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="O7">
         <f ca="1">SUM(Sheet1!$B7:O7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="P7">
         <f ca="1">SUM(Sheet1!$B7:P7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="Q7">
         <f ca="1">SUM(Sheet1!$B7:Q7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="R7">
         <f ca="1">SUM(Sheet1!$B7:R7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="S7">
         <f ca="1">SUM(Sheet1!$B7:S7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="T7">
         <f ca="1">SUM(Sheet1!$B7:T7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="U7">
         <f ca="1">SUM(Sheet1!$B7:U7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="V7">
         <f ca="1">SUM(Sheet1!$B7:V7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="W7">
         <f ca="1">SUM(Sheet1!$B7:W7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="X7">
         <f ca="1">SUM(Sheet1!$B7:X7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="Y7">
         <f ca="1">SUM(Sheet1!$B7:Y7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="Z7">
         <f ca="1">SUM(Sheet1!$B7:Z7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AA7">
         <f ca="1">SUM(Sheet1!$B7:AA7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AB7">
         <f ca="1">SUM(Sheet1!$B7:AB7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AC7">
         <f ca="1">SUM(Sheet1!$B7:AC7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AD7">
         <f ca="1">SUM(Sheet1!$B7:AD7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AE7">
         <f ca="1">SUM(Sheet1!$B7:AE7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AF7">
         <f ca="1">SUM(Sheet1!$B7:AF7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AG7">
         <f ca="1">SUM(Sheet1!$B7:AG7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AH7">
         <f ca="1">SUM(Sheet1!$B7:AH7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AI7">
         <f ca="1">SUM(Sheet1!$B7:AI7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AJ7">
         <f ca="1">SUM(Sheet1!$B7:AJ7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AK7">
         <f ca="1">SUM(Sheet1!$B7:AK7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AL7">
         <f ca="1">SUM(Sheet1!$B7:AL7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AM7">
         <f ca="1">SUM(Sheet1!$B7:AM7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AN7">
         <f ca="1">SUM(Sheet1!$B7:AN7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AO7">
         <f ca="1">SUM(Sheet1!$B7:AO7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AP7">
         <f ca="1">SUM(Sheet1!$B7:AP7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AQ7">
         <f ca="1">SUM(Sheet1!$B7:AQ7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AR7">
         <f ca="1">SUM(Sheet1!$B7:AR7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AS7">
         <f ca="1">SUM(Sheet1!$B7:AS7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AT7">
         <f ca="1">SUM(Sheet1!$B7:AT7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AU7">
         <f ca="1">SUM(Sheet1!$B7:AU7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AV7">
         <f ca="1">SUM(Sheet1!$B7:AV7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AW7">
         <f ca="1">SUM(Sheet1!$B7:AW7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AX7">
         <f ca="1">SUM(Sheet1!$B7:AX7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AY7">
         <f ca="1">SUM(Sheet1!$B7:AY7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="AZ7">
         <f ca="1">SUM(Sheet1!$B7:AZ7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
       <c r="BA7">
         <f ca="1">SUM(Sheet1!$B7:BA7)</f>
-        <v>0.25998276492075845</v>
+        <v>0.95945579478552478</v>
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f ca="1">SUM(Sheet1!$B8:B8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="C8">
         <f ca="1">SUM(Sheet1!$B8:C8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="D8">
         <f ca="1">SUM(Sheet1!$B8:D8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="E8">
         <f ca="1">SUM(Sheet1!$B8:E8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="F8">
         <f ca="1">SUM(Sheet1!$B8:F8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="G8">
         <f ca="1">SUM(Sheet1!$B8:G8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="H8">
         <f ca="1">SUM(Sheet1!$B8:H8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="I8">
         <f ca="1">SUM(Sheet1!$B8:I8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="J8">
         <f ca="1">SUM(Sheet1!$B8:J8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="K8">
         <f ca="1">SUM(Sheet1!$B8:K8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="L8">
         <f ca="1">SUM(Sheet1!$B8:L8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="M8">
         <f ca="1">SUM(Sheet1!$B8:M8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="N8">
         <f ca="1">SUM(Sheet1!$B8:N8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="O8">
         <f ca="1">SUM(Sheet1!$B8:O8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="P8">
         <f ca="1">SUM(Sheet1!$B8:P8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="Q8">
         <f ca="1">SUM(Sheet1!$B8:Q8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="R8">
         <f ca="1">SUM(Sheet1!$B8:R8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="S8">
         <f ca="1">SUM(Sheet1!$B8:S8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="T8">
         <f ca="1">SUM(Sheet1!$B8:T8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="U8">
         <f ca="1">SUM(Sheet1!$B8:U8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="V8">
         <f ca="1">SUM(Sheet1!$B8:V8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="W8">
         <f ca="1">SUM(Sheet1!$B8:W8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="X8">
         <f ca="1">SUM(Sheet1!$B8:X8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="Y8">
         <f ca="1">SUM(Sheet1!$B8:Y8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="Z8">
         <f ca="1">SUM(Sheet1!$B8:Z8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AA8">
         <f ca="1">SUM(Sheet1!$B8:AA8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AB8">
         <f ca="1">SUM(Sheet1!$B8:AB8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AC8">
         <f ca="1">SUM(Sheet1!$B8:AC8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AD8">
         <f ca="1">SUM(Sheet1!$B8:AD8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AE8">
         <f ca="1">SUM(Sheet1!$B8:AE8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AF8">
         <f ca="1">SUM(Sheet1!$B8:AF8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AG8">
         <f ca="1">SUM(Sheet1!$B8:AG8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AH8">
         <f ca="1">SUM(Sheet1!$B8:AH8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AI8">
         <f ca="1">SUM(Sheet1!$B8:AI8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AJ8">
         <f ca="1">SUM(Sheet1!$B8:AJ8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AK8">
         <f ca="1">SUM(Sheet1!$B8:AK8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AL8">
         <f ca="1">SUM(Sheet1!$B8:AL8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AM8">
         <f ca="1">SUM(Sheet1!$B8:AM8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AN8">
         <f ca="1">SUM(Sheet1!$B8:AN8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AO8">
         <f ca="1">SUM(Sheet1!$B8:AO8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AP8">
         <f ca="1">SUM(Sheet1!$B8:AP8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AQ8">
         <f ca="1">SUM(Sheet1!$B8:AQ8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AR8">
         <f ca="1">SUM(Sheet1!$B8:AR8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AS8">
         <f ca="1">SUM(Sheet1!$B8:AS8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AT8">
         <f ca="1">SUM(Sheet1!$B8:AT8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AU8">
         <f ca="1">SUM(Sheet1!$B8:AU8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AV8">
         <f ca="1">SUM(Sheet1!$B8:AV8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AW8">
         <f ca="1">SUM(Sheet1!$B8:AW8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AX8">
         <f ca="1">SUM(Sheet1!$B8:AX8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AY8">
         <f ca="1">SUM(Sheet1!$B8:AY8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="AZ8">
         <f ca="1">SUM(Sheet1!$B8:AZ8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
       <c r="BA8">
         <f ca="1">SUM(Sheet1!$B8:BA8)</f>
-        <v>0.21799953981233211</v>
+        <v>0.17470422018059872</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f ca="1">SUM(Sheet1!$B9:B9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="C9">
         <f ca="1">SUM(Sheet1!$B9:C9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="D9">
         <f ca="1">SUM(Sheet1!$B9:D9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="E9">
         <f ca="1">SUM(Sheet1!$B9:E9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="F9">
         <f ca="1">SUM(Sheet1!$B9:F9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="G9">
         <f ca="1">SUM(Sheet1!$B9:G9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="H9">
         <f ca="1">SUM(Sheet1!$B9:H9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="I9">
         <f ca="1">SUM(Sheet1!$B9:I9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="J9">
         <f ca="1">SUM(Sheet1!$B9:J9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="K9">
         <f ca="1">SUM(Sheet1!$B9:K9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="L9">
         <f ca="1">SUM(Sheet1!$B9:L9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="M9">
         <f ca="1">SUM(Sheet1!$B9:M9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="N9">
         <f ca="1">SUM(Sheet1!$B9:N9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="O9">
         <f ca="1">SUM(Sheet1!$B9:O9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="P9">
         <f ca="1">SUM(Sheet1!$B9:P9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="Q9">
         <f ca="1">SUM(Sheet1!$B9:Q9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="R9">
         <f ca="1">SUM(Sheet1!$B9:R9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="S9">
         <f ca="1">SUM(Sheet1!$B9:S9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="T9">
         <f ca="1">SUM(Sheet1!$B9:T9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="U9">
         <f ca="1">SUM(Sheet1!$B9:U9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="V9">
         <f ca="1">SUM(Sheet1!$B9:V9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="W9">
         <f ca="1">SUM(Sheet1!$B9:W9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="X9">
         <f ca="1">SUM(Sheet1!$B9:X9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="Y9">
         <f ca="1">SUM(Sheet1!$B9:Y9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="Z9">
         <f ca="1">SUM(Sheet1!$B9:Z9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AA9">
         <f ca="1">SUM(Sheet1!$B9:AA9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AB9">
         <f ca="1">SUM(Sheet1!$B9:AB9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AC9">
         <f ca="1">SUM(Sheet1!$B9:AC9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AD9">
         <f ca="1">SUM(Sheet1!$B9:AD9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AE9">
         <f ca="1">SUM(Sheet1!$B9:AE9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AF9">
         <f ca="1">SUM(Sheet1!$B9:AF9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AG9">
         <f ca="1">SUM(Sheet1!$B9:AG9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AH9">
         <f ca="1">SUM(Sheet1!$B9:AH9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AI9">
         <f ca="1">SUM(Sheet1!$B9:AI9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AJ9">
         <f ca="1">SUM(Sheet1!$B9:AJ9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AK9">
         <f ca="1">SUM(Sheet1!$B9:AK9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AL9">
         <f ca="1">SUM(Sheet1!$B9:AL9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AM9">
         <f ca="1">SUM(Sheet1!$B9:AM9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AN9">
         <f ca="1">SUM(Sheet1!$B9:AN9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AO9">
         <f ca="1">SUM(Sheet1!$B9:AO9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AP9">
         <f ca="1">SUM(Sheet1!$B9:AP9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AQ9">
         <f ca="1">SUM(Sheet1!$B9:AQ9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AR9">
         <f ca="1">SUM(Sheet1!$B9:AR9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AS9">
         <f ca="1">SUM(Sheet1!$B9:AS9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AT9">
         <f ca="1">SUM(Sheet1!$B9:AT9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AU9">
         <f ca="1">SUM(Sheet1!$B9:AU9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AV9">
         <f ca="1">SUM(Sheet1!$B9:AV9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AW9">
         <f ca="1">SUM(Sheet1!$B9:AW9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AX9">
         <f ca="1">SUM(Sheet1!$B9:AX9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AY9">
         <f ca="1">SUM(Sheet1!$B9:AY9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="AZ9">
         <f ca="1">SUM(Sheet1!$B9:AZ9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
       <c r="BA9">
         <f ca="1">SUM(Sheet1!$B9:BA9)</f>
-        <v>0.55424762630783586</v>
+        <v>0.18254069966587116</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <f ca="1">SUM(Sheet1!$B10:B10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="C10">
         <f ca="1">SUM(Sheet1!$B10:C10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="D10">
         <f ca="1">SUM(Sheet1!$B10:D10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="E10">
         <f ca="1">SUM(Sheet1!$B10:E10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="F10">
         <f ca="1">SUM(Sheet1!$B10:F10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="G10">
         <f ca="1">SUM(Sheet1!$B10:G10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="H10">
         <f ca="1">SUM(Sheet1!$B10:H10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="I10">
         <f ca="1">SUM(Sheet1!$B10:I10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="J10">
         <f ca="1">SUM(Sheet1!$B10:J10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="K10">
         <f ca="1">SUM(Sheet1!$B10:K10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="L10">
         <f ca="1">SUM(Sheet1!$B10:L10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="M10">
         <f ca="1">SUM(Sheet1!$B10:M10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="N10">
         <f ca="1">SUM(Sheet1!$B10:N10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="O10">
         <f ca="1">SUM(Sheet1!$B10:O10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="P10">
         <f ca="1">SUM(Sheet1!$B10:P10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="Q10">
         <f ca="1">SUM(Sheet1!$B10:Q10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="R10">
         <f ca="1">SUM(Sheet1!$B10:R10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="S10">
         <f ca="1">SUM(Sheet1!$B10:S10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="T10">
         <f ca="1">SUM(Sheet1!$B10:T10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="U10">
         <f ca="1">SUM(Sheet1!$B10:U10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="V10">
         <f ca="1">SUM(Sheet1!$B10:V10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="W10">
         <f ca="1">SUM(Sheet1!$B10:W10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="X10">
         <f ca="1">SUM(Sheet1!$B10:X10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="Y10">
         <f ca="1">SUM(Sheet1!$B10:Y10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="Z10">
         <f ca="1">SUM(Sheet1!$B10:Z10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AA10">
         <f ca="1">SUM(Sheet1!$B10:AA10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AB10">
         <f ca="1">SUM(Sheet1!$B10:AB10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AC10">
         <f ca="1">SUM(Sheet1!$B10:AC10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AD10">
         <f ca="1">SUM(Sheet1!$B10:AD10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AE10">
         <f ca="1">SUM(Sheet1!$B10:AE10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AF10">
         <f ca="1">SUM(Sheet1!$B10:AF10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AG10">
         <f ca="1">SUM(Sheet1!$B10:AG10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AH10">
         <f ca="1">SUM(Sheet1!$B10:AH10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AI10">
         <f ca="1">SUM(Sheet1!$B10:AI10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AJ10">
         <f ca="1">SUM(Sheet1!$B10:AJ10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AK10">
         <f ca="1">SUM(Sheet1!$B10:AK10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AL10">
         <f ca="1">SUM(Sheet1!$B10:AL10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AM10">
         <f ca="1">SUM(Sheet1!$B10:AM10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AN10">
         <f ca="1">SUM(Sheet1!$B10:AN10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AO10">
         <f ca="1">SUM(Sheet1!$B10:AO10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AP10">
         <f ca="1">SUM(Sheet1!$B10:AP10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AQ10">
         <f ca="1">SUM(Sheet1!$B10:AQ10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AR10">
         <f ca="1">SUM(Sheet1!$B10:AR10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AS10">
         <f ca="1">SUM(Sheet1!$B10:AS10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AT10">
         <f ca="1">SUM(Sheet1!$B10:AT10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AU10">
         <f ca="1">SUM(Sheet1!$B10:AU10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AV10">
         <f ca="1">SUM(Sheet1!$B10:AV10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AW10">
         <f ca="1">SUM(Sheet1!$B10:AW10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AX10">
         <f ca="1">SUM(Sheet1!$B10:AX10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AY10">
         <f ca="1">SUM(Sheet1!$B10:AY10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="AZ10">
         <f ca="1">SUM(Sheet1!$B10:AZ10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
       <c r="BA10">
         <f ca="1">SUM(Sheet1!$B10:BA10)</f>
-        <v>9.3024204106439079E-2</v>
+        <v>0.55768455815132523</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <f ca="1">SUM(Sheet1!$B11:B11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="C11">
         <f ca="1">SUM(Sheet1!$B11:C11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="D11">
         <f ca="1">SUM(Sheet1!$B11:D11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="E11">
         <f ca="1">SUM(Sheet1!$B11:E11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="F11">
         <f ca="1">SUM(Sheet1!$B11:F11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="G11">
         <f ca="1">SUM(Sheet1!$B11:G11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="H11">
         <f ca="1">SUM(Sheet1!$B11:H11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="I11">
         <f ca="1">SUM(Sheet1!$B11:I11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="J11">
         <f ca="1">SUM(Sheet1!$B11:J11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="K11">
         <f ca="1">SUM(Sheet1!$B11:K11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="L11">
         <f ca="1">SUM(Sheet1!$B11:L11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="M11">
         <f ca="1">SUM(Sheet1!$B11:M11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="N11">
         <f ca="1">SUM(Sheet1!$B11:N11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="O11">
         <f ca="1">SUM(Sheet1!$B11:O11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="P11">
         <f ca="1">SUM(Sheet1!$B11:P11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="Q11">
         <f ca="1">SUM(Sheet1!$B11:Q11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="R11">
         <f ca="1">SUM(Sheet1!$B11:R11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="S11">
         <f ca="1">SUM(Sheet1!$B11:S11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="T11">
         <f ca="1">SUM(Sheet1!$B11:T11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="U11">
         <f ca="1">SUM(Sheet1!$B11:U11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="V11">
         <f ca="1">SUM(Sheet1!$B11:V11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="W11">
         <f ca="1">SUM(Sheet1!$B11:W11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="X11">
         <f ca="1">SUM(Sheet1!$B11:X11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="Y11">
         <f ca="1">SUM(Sheet1!$B11:Y11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="Z11">
         <f ca="1">SUM(Sheet1!$B11:Z11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AA11">
         <f ca="1">SUM(Sheet1!$B11:AA11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AB11">
         <f ca="1">SUM(Sheet1!$B11:AB11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AC11">
         <f ca="1">SUM(Sheet1!$B11:AC11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AD11">
         <f ca="1">SUM(Sheet1!$B11:AD11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AE11">
         <f ca="1">SUM(Sheet1!$B11:AE11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AF11">
         <f ca="1">SUM(Sheet1!$B11:AF11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AG11">
         <f ca="1">SUM(Sheet1!$B11:AG11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AH11">
         <f ca="1">SUM(Sheet1!$B11:AH11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AI11">
         <f ca="1">SUM(Sheet1!$B11:AI11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AJ11">
         <f ca="1">SUM(Sheet1!$B11:AJ11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AK11">
         <f ca="1">SUM(Sheet1!$B11:AK11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AL11">
         <f ca="1">SUM(Sheet1!$B11:AL11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AM11">
         <f ca="1">SUM(Sheet1!$B11:AM11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AN11">
         <f ca="1">SUM(Sheet1!$B11:AN11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AO11">
         <f ca="1">SUM(Sheet1!$B11:AO11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AP11">
         <f ca="1">SUM(Sheet1!$B11:AP11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AQ11">
         <f ca="1">SUM(Sheet1!$B11:AQ11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AR11">
         <f ca="1">SUM(Sheet1!$B11:AR11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AS11">
         <f ca="1">SUM(Sheet1!$B11:AS11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AT11">
         <f ca="1">SUM(Sheet1!$B11:AT11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AU11">
         <f ca="1">SUM(Sheet1!$B11:AU11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AV11">
         <f ca="1">SUM(Sheet1!$B11:AV11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AW11">
         <f ca="1">SUM(Sheet1!$B11:AW11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AX11">
         <f ca="1">SUM(Sheet1!$B11:AX11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AY11">
         <f ca="1">SUM(Sheet1!$B11:AY11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="AZ11">
         <f ca="1">SUM(Sheet1!$B11:AZ11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
       <c r="BA11">
         <f ca="1">SUM(Sheet1!$B11:BA11)</f>
-        <v>0.21369003957685306</v>
+        <v>0.6022325197605346</v>
       </c>
     </row>
   </sheetData>
